--- a/dados_entrada/Análise Financeira.xlsx
+++ b/dados_entrada/Análise Financeira.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.rafael\Desktop\projetos\robo-comissoes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.rafael\Desktop\PROJETO_COMISSOES_V2\dados_entrada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2382419B-EA38-4AF3-A955-F8D268E99BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B147D6C9-B9D0-46BF-9904-D75DE4E2116D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
   <si>
     <t>Prefixo</t>
   </si>
@@ -605,13 +605,13 @@
   <dimension ref="A1:AX2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="50" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
@@ -793,8 +793,8 @@
       <c r="A2" t="s">
         <v>50</v>
       </c>
-      <c r="B2" t="s">
-        <v>51</v>
+      <c r="B2">
+        <v>48341</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="AM2" s="3">
-        <v>45513.41</v>
+        <v>50</v>
       </c>
       <c r="AN2" s="3">
         <v>0</v>

--- a/dados_entrada/Análise Financeira.xlsx
+++ b/dados_entrada/Análise Financeira.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.rafael\Desktop\PROJETO_COMISSOES_V2\dados_entrada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B147D6C9-B9D0-46BF-9904-D75DE4E2116D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C2AE2F-7503-402F-A70C-0201A2FD1E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="75">
   <si>
     <t>Prefixo</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>COT999998</t>
   </si>
 </sst>
 </file>
@@ -602,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX2"/>
+  <dimension ref="A1:AX3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -905,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="AM2" s="3">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AN2" s="3">
         <v>0</v>
@@ -938,6 +941,158 @@
         <v>54</v>
       </c>
       <c r="AX2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="2">
+        <v>45918</v>
+      </c>
+      <c r="M3" s="2">
+        <v>45936</v>
+      </c>
+      <c r="N3" s="2">
+        <v>45936</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R3" t="s">
+        <v>63</v>
+      </c>
+      <c r="S3" s="2">
+        <v>45918</v>
+      </c>
+      <c r="T3" t="s">
+        <v>64</v>
+      </c>
+      <c r="U3" t="s">
+        <v>56</v>
+      </c>
+      <c r="V3" t="s">
+        <v>65</v>
+      </c>
+      <c r="W3" t="s">
+        <v>66</v>
+      </c>
+      <c r="X3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>45513.41</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>50</v>
+      </c>
+      <c r="AN3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>45901</v>
+      </c>
+      <c r="AP3" s="2">
+        <v>45923</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX3" s="3">
         <v>0</v>
       </c>
     </row>
